--- a/biology/Biologie cellulaire et moléculaire/FADD/FADD.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/FADD/FADD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FADD (de l'anglais : Fas-Associated protein with Death Domain), également appelé MORT1, est une protéine humaine encodée par un gène présent dans la région 11q13.3 du chromosome 11 humain et impliquée dans différents processus dont l'apoptose extrinsèque, la nécroptose et la prolifération[4].
-FADD est une protéine adaptatrice, faisant le lien entre les récepteurs de mort (tels que FasR ou TRAIL-R2) et les caspases initiatrices 8 et 10 dans un complexe de haut poids moléculaire appelé DISC (Death-Inducing Signaling Complex)[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FADD (de l'anglais : Fas-Associated protein with Death Domain), également appelé MORT1, est une protéine humaine encodée par un gène présent dans la région 11q13.3 du chromosome 11 humain et impliquée dans différents processus dont l'apoptose extrinsèque, la nécroptose et la prolifération.
+FADD est une protéine adaptatrice, faisant le lien entre les récepteurs de mort (tels que FasR ou TRAIL-R2) et les caspases initiatrices 8 et 10 dans un complexe de haut poids moléculaire appelé DISC (Death-Inducing Signaling Complex).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FADD est une protéine de 23 kDa pour 280 acides aminés. Elle contient un domaine de mort (DD) en N-terminal et un domaine effecteur de mort (en) (DED) en C-terminal. Ces deux domaines ont une structure très similaire et sont chacun constitués de 6 hélices alpha. Le DD permet un recrutement par des liaisons électrostatiques à d'autres protéines contenant un DD[6], tandis que le DED permet un recrutement par des liaisons hydrophobes à d'autres protéines contenant un DED[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FADD est une protéine de 23 kDa pour 280 acides aminés. Elle contient un domaine de mort (DD) en N-terminal et un domaine effecteur de mort (en) (DED) en C-terminal. Ces deux domaines ont une structure très similaire et sont chacun constitués de 6 hélices alpha. Le DD permet un recrutement par des liaisons électrostatiques à d'autres protéines contenant un DD, tandis que le DED permet un recrutement par des liaisons hydrophobes à d'autres protéines contenant un DED.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apoptose extrinsèque
-FADD possède un rôle clé dans l'apoptose extrinsèque, dont l'un des médiateurs principaux est le récepteur Fas. Pour prendre cet exemple, l'activation de FasR par son ligand induit un changement de conformation des récepteurs et le recrutement de FADD par des interactions homotypiques entre les deux DD respectifs. FADD permet ensuite le recrutement des caspases initiatrices 8 et 10 pour former un complexe de haut poids moléculaire appelé le DISC (Death-Inducing Signaling Complex)[5]. La formation de ce complexe entraîne, par un effet de proximité, l'autoclivage des caspases 8 et 10 qui sont alors relarguées dans le cytosol sous une forme dimérique active et poursuivent le processus d'apoptose[8].
-Nécroptose
-FADD est également l'un constituant du complexe ripoptosome qui peut, selon l'environnement cellulaire, induire l'apoptose ou la nécroptose des cellules[9].
+          <t>Apoptose extrinsèque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FADD possède un rôle clé dans l'apoptose extrinsèque, dont l'un des médiateurs principaux est le récepteur Fas. Pour prendre cet exemple, l'activation de FasR par son ligand induit un changement de conformation des récepteurs et le recrutement de FADD par des interactions homotypiques entre les deux DD respectifs. FADD permet ensuite le recrutement des caspases initiatrices 8 et 10 pour former un complexe de haut poids moléculaire appelé le DISC (Death-Inducing Signaling Complex). La formation de ce complexe entraîne, par un effet de proximité, l'autoclivage des caspases 8 et 10 qui sont alors relarguées dans le cytosol sous une forme dimérique active et poursuivent le processus d'apoptose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FADD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/FADD</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nécroptose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FADD est également l'un constituant du complexe ripoptosome qui peut, selon l'environnement cellulaire, induire l'apoptose ou la nécroptose des cellules.
 </t>
         </is>
       </c>
